--- a/CoC.xlsx
+++ b/CoC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8E0EE0-590B-4BC0-9990-24D9865E3054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55CD23C-CA3C-4639-8963-E8A033D1FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{80DABFE5-E9A7-496A-9AA7-416094618565}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{80DABFE5-E9A7-496A-9AA7-416094618565}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>Main</t>
   </si>
@@ -154,13 +154,58 @@
   </si>
   <si>
     <t>Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Factor Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small cap Premium </t>
+  </si>
+  <si>
+    <t>Small Cap Premium beta</t>
+  </si>
+  <si>
+    <t>Value versus  Growth premium</t>
+  </si>
+  <si>
+    <t>Value versus  Growth premium beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profitability premium </t>
+  </si>
+  <si>
+    <t>Porfitability premium beta</t>
+  </si>
+  <si>
+    <t>Conservative investment premiun</t>
+  </si>
+  <si>
+    <t>Conservative investment premiun beta</t>
+  </si>
+  <si>
+    <t>Fama-French 5-Factor Model</t>
+  </si>
+  <si>
+    <t>Cost of Equity 5 Factor Model</t>
+  </si>
+  <si>
+    <t>https://mba.tuck.dartmouth.edu/pages/faculty/ken.french/data_library.html</t>
+  </si>
+  <si>
+    <t>Data:</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Expected Inflation (Kelly Formula)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +231,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -257,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -269,6 +322,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -291,16 +348,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19847</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>358866</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444590</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -316,7 +373,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -330,8 +387,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10306050" y="876301"/>
-          <a:ext cx="6512016" cy="3390900"/>
+          <a:off x="6325397" y="381001"/>
+          <a:ext cx="4691943" cy="2443162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71D2722-CEEF-4EC0-89E0-483F40976C3D}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,12 +1011,190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F842166-BB37-4D58-9F3F-3EBBE5466A02}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <f>F5+F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <f>F18-F19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12">
+        <f>+F7+F15*(F20-F7)+F23*F24+F25*F26+F27*F28+F29*F30</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
